--- a/matrixmul/values - whole program.xlsx
+++ b/matrixmul/values - whole program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Original</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>OpenMP - Kremlin</t>
+  </si>
+  <si>
+    <t>Kremlin</t>
   </si>
 </sst>
 </file>
@@ -346,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405493088"/>
-        <c:axId val="405487992"/>
+        <c:axId val="131609896"/>
+        <c:axId val="131610680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405493088"/>
+        <c:axId val="131609896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,12 +466,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405487992"/>
+        <c:crossAx val="131610680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405487992"/>
+        <c:axId val="131610680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +584,1629 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405493088"/>
+        <c:crossAx val="131609896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>OpenMP /</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Kremlin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Muline</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Matrix size 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$D$113,'Execution time'!$D$117,'Execution time'!$D$121,'Execution time'!$D$125,'Execution time'!$D$129,'Execution time'!$D$133,'Execution time'!$D$137,'Execution time'!$D$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5289100889505676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56612221460534329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0758245667530559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.2771594149572394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7157616903555493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8230807019870383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1916806602926044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1366268242305182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Matrix size 2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$D$114,'Execution time'!$D$118,'Execution time'!$D$122,'Execution time'!$D$126,'Execution time'!$D$130,'Execution time'!$D$134,'Execution time'!$D$138,'Execution time'!$D$142)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.3308631138270357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.94406505006077168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8938702211880099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78506152104090177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.501732925586154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47155066936976198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.41599525669775517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8037806361038804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Matrix size 3000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$D$115,'Execution time'!$D$119,'Execution time'!$D$123,'Execution time'!$D$127,'Execution time'!$D$131,'Execution time'!$D$135,'Execution time'!$D$139,'Execution time'!$D$143)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.6424285413033886E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3731625823670015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5139785882503531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0605793215347887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73302317564801456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.3381074197802718E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24405761108685908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45520367487461044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Matrix size 4000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$D$116,'Execution time'!$D$120,'Execution time'!$D$124,'Execution time'!$D$128,'Execution time'!$D$132,'Execution time'!$D$136,'Execution time'!$D$140,'Execution time'!$D$144)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7621909727012053E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62153942505230475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0848173178825249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1466691674197307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2982980781923743E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.52477916321689122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.1219726278973923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.53728148412415067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474348976"/>
+        <c:axId val="474345840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474348976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474345840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474345840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Racio execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474348976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>OpenMP / Kremlin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Mul</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Matrix size 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$C$113,'Execution time'!$C$117,'Execution time'!$C$121,'Execution time'!$C$125,'Execution time'!$C$129,'Execution time'!$C$133,'Execution time'!$C$137,'Execution time'!$C$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-3.0080057488009544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1536431240102303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2003034901365766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0747126967561655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.907896298758331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0688866374833594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8096479304756627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0013783641295078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Matrix size 2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$C$114,'Execution time'!$C$118,'Execution time'!$C$122,'Execution time'!$C$126,'Execution time'!$C$130,'Execution time'!$C$134,'Execution time'!$C$138,'Execution time'!$C$142)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.38734410548006792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.31743650417507752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95128618604101689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7356961024196096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0364220901457344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6497352983259361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61971350784921242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8408251417960031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Matrix size 3000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$C$115,'Execution time'!$C$119,'Execution time'!$C$123,'Execution time'!$C$127,'Execution time'!$C$131,'Execution time'!$C$135,'Execution time'!$C$139,'Execution time'!$C$143)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.2690469452567328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94047894909267882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1405747177755785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.023668124075968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5768554476926795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.8816300684032257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1669046771647231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4498514420407247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Matrix size 4000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Execution time'!$A$113,'Execution time'!$A$117,'Execution time'!$A$121,'Execution time'!$A$125,'Execution time'!$A$129,'Execution time'!$A$133,'Execution time'!$A$137,'Execution time'!$A$141)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Execution time'!$C$116,'Execution time'!$C$120,'Execution time'!$C$124,'Execution time'!$C$128,'Execution time'!$C$132,'Execution time'!$C$136,'Execution time'!$C$140,'Execution time'!$C$144)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42829774055334724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9198933773748621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1104991903466299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.26934886183165929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40113367431062841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5919640628895309E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1461550855064786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4460236015248569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474356424"/>
+        <c:axId val="474349760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474356424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474349760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474349760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Racio execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474356424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1355,11 +2980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405493480"/>
-        <c:axId val="405489168"/>
+        <c:axId val="131609504"/>
+        <c:axId val="131604800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405493480"/>
+        <c:axId val="131609504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,12 +3097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405489168"/>
+        <c:crossAx val="131604800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405489168"/>
+        <c:axId val="131604800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +3215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405493480"/>
+        <c:crossAx val="131609504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2364,11 +3989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446325528"/>
-        <c:axId val="446327096"/>
+        <c:axId val="131611464"/>
+        <c:axId val="131604016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446325528"/>
+        <c:axId val="131611464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,12 +4106,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327096"/>
+        <c:crossAx val="131604016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446327096"/>
+        <c:axId val="131604016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +4224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446325528"/>
+        <c:crossAx val="131611464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3369,11 +4994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446327880"/>
-        <c:axId val="446324744"/>
+        <c:axId val="131604408"/>
+        <c:axId val="417876120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446327880"/>
+        <c:axId val="131604408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,12 +5111,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446324744"/>
+        <c:crossAx val="417876120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446324744"/>
+        <c:axId val="417876120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +5234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327880"/>
+        <c:crossAx val="131604408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4383,11 +6008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406814392"/>
-        <c:axId val="406810472"/>
+        <c:axId val="417877688"/>
+        <c:axId val="417878080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406814392"/>
+        <c:axId val="417877688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,12 +6125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406810472"/>
+        <c:crossAx val="417878080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406810472"/>
+        <c:axId val="417878080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +6243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406814392"/>
+        <c:crossAx val="417877688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5392,11 +7017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406807728"/>
-        <c:axId val="406810864"/>
+        <c:axId val="417879256"/>
+        <c:axId val="417877296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406807728"/>
+        <c:axId val="417879256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,12 +7134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406810864"/>
+        <c:crossAx val="417877296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406810864"/>
+        <c:axId val="417877296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +7252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406807728"/>
+        <c:crossAx val="417879256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6397,11 +8022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406810080"/>
-        <c:axId val="406811648"/>
+        <c:axId val="417881608"/>
+        <c:axId val="417882000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406810080"/>
+        <c:axId val="417881608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,12 +8139,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406811648"/>
+        <c:crossAx val="417882000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406811648"/>
+        <c:axId val="417882000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,7 +8262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406810080"/>
+        <c:crossAx val="417881608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6757,7 +8382,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> - Kremlin Mul</a:t>
+              <a:t> / Kremlin Mul</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -6857,16 +8482,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19925000000000015</c:v>
+                  <c:v>-3.0080057488009544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25300000000000011</c:v>
+                  <c:v>-0.38734410548006792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7729999999999961</c:v>
+                  <c:v>-2.2690469452567328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.6759999999999309</c:v>
+                  <c:v>0.42829774055334724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6931,16 +8556,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-4.502000000000006E-2</c:v>
+                  <c:v>1.1536431240102303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3099999999999739E-2</c:v>
+                  <c:v>-0.31743650417507752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1770000000000067</c:v>
+                  <c:v>0.94047894909267882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0299999999999727</c:v>
+                  <c:v>-0.9198933773748621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,16 +8630,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.2500000000000231E-2</c:v>
+                  <c:v>-2.2003034901365766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.23419999999999774</c:v>
+                  <c:v>0.95128618604101689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99629999999999086</c:v>
+                  <c:v>-1.1405747177755785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.7019999999999982</c:v>
+                  <c:v>1.1104991903466299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7079,16 +8704,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.4909999999999997E-2</c:v>
+                  <c:v>-1.0747126967561655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90690000000000026</c:v>
+                  <c:v>-3.7356961024196096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.698599999999999</c:v>
+                  <c:v>-4.023668124075968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63599999999999568</c:v>
+                  <c:v>-0.26934886183165929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7153,16 +8778,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-6.4289999999999736E-2</c:v>
+                  <c:v>1.907896298758331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.48140000000000072</c:v>
+                  <c:v>2.0364220901457344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4187000000000012</c:v>
+                  <c:v>-1.5768554476926795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.97800000000000864</c:v>
+                  <c:v>0.40113367431062841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7227,16 +8852,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-3.3549999999999969E-2</c:v>
+                  <c:v>1.0688866374833594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34590000000000032</c:v>
+                  <c:v>1.6497352983259361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7002999999999986</c:v>
+                  <c:v>-4.8816300684032257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.200000000001296E-2</c:v>
+                  <c:v>-4.5919640628895309E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7307,16 +8932,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-5.8179999999999676E-2</c:v>
+                  <c:v>1.8096479304756627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12359999999999971</c:v>
+                  <c:v>0.61971350784921242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4672999999999945</c:v>
+                  <c:v>-2.1669046771647231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25399999999999068</c:v>
+                  <c:v>-0.1461550855064786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7387,16 +9012,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-3.1530000000000058E-2</c:v>
+                  <c:v>1.0013783641295078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.3647999999999989</c:v>
+                  <c:v>1.8408251417960031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93739999999999668</c:v>
+                  <c:v>-1.4498514420407247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4869999999999948</c:v>
+                  <c:v>3.4460236015248569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,11 +9036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="449973120"/>
-        <c:axId val="449975080"/>
+        <c:axId val="417881216"/>
+        <c:axId val="417875336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="449973120"/>
+        <c:axId val="417881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7528,12 +9153,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449975080"/>
+        <c:crossAx val="417875336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449975080"/>
+        <c:axId val="417875336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7574,7 +9199,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Difference execution time (s)</a:t>
+                  <a:t>Racio execution time (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7646,7 +9271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449973120"/>
+        <c:crossAx val="417881216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7762,7 +9387,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP - Kremlin</a:t>
+              <a:t>OpenMP / Kremlin</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -7866,16 +9491,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-9.8850000000000549E-2</c:v>
+                  <c:v>1.5289100889505676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15680000000000405</c:v>
+                  <c:v>-0.3308631138270357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.7000000000016371E-2</c:v>
+                  <c:v>3.6424285413033886E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.4999999999997726E-2</c:v>
+                  <c:v>1.7621909727012053E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7940,16 +9565,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-2.2380000000000067E-2</c:v>
+                  <c:v>0.56612221460534329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26099999999999923</c:v>
+                  <c:v>-0.94406505006077168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.1610000000000014</c:v>
+                  <c:v>6.3731625823670015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3100000000000023</c:v>
+                  <c:v>0.62153942505230475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8014,16 +9639,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.13633999999999968</c:v>
+                  <c:v>4.0758245667530559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.92370000000000019</c:v>
+                  <c:v>3.8938702211880099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1128000000000071</c:v>
+                  <c:v>-1.5139785882503531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5999999999999943</c:v>
+                  <c:v>-2.0848173178825249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8088,16 +9713,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23733000000000004</c:v>
+                  <c:v>-7.2771594149572394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.18649999999999878</c:v>
+                  <c:v>0.78506152104090177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80530000000000257</c:v>
+                  <c:v>-1.0605793215347887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7769999999999868</c:v>
+                  <c:v>-2.1466691674197307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8162,16 +9787,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-6.0780000000000278E-2</c:v>
+                  <c:v>1.7157616903555493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3683000000000014</c:v>
+                  <c:v>-1.501732925586154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.57840000000000202</c:v>
+                  <c:v>0.73302317564801456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.0000000000002274E-3</c:v>
+                  <c:v>3.2982980781923743E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8236,16 +9861,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-6.0490000000000155E-2</c:v>
+                  <c:v>1.8230807019870383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.10560000000000258</c:v>
+                  <c:v>0.47155066936976198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.880000000000507E-2</c:v>
+                  <c:v>-8.3381074197802718E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84299999999998931</c:v>
+                  <c:v>-0.52477916321689122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8316,16 +9941,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-7.0740000000000247E-2</c:v>
+                  <c:v>2.1916806602926044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6999999999999744E-2</c:v>
+                  <c:v>-0.41599525669775517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15920000000001266</c:v>
+                  <c:v>0.24405761108685908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5860000000000127</c:v>
+                  <c:v>-5.1219726278973923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8396,16 +10021,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.16686999999999985</c:v>
+                  <c:v>5.1366268242305182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.16259999999999764</c:v>
+                  <c:v>0.8037806361038804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.28479999999999706</c:v>
+                  <c:v>0.45520367487461044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7529999999999859</c:v>
+                  <c:v>-0.53728148412415067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8420,11 +10045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451203904"/>
-        <c:axId val="451202728"/>
+        <c:axId val="417880824"/>
+        <c:axId val="417876512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451203904"/>
+        <c:axId val="417880824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8537,12 +10162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451202728"/>
+        <c:crossAx val="417876512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451202728"/>
+        <c:axId val="417876512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8583,16 +10208,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Difference</a:t>
+                  <a:t>Racio </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> execution time </a:t>
+                  <a:t> execution time (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>(s)</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8663,7 +10285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451203904"/>
+        <c:crossAx val="417880824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8745,6 +10367,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9620,6 +11322,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14034,6 +16768,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>367554</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>31375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14326,8 +17122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14951,6 +17747,16 @@
         <v>8.3498113698451988</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
@@ -15499,12 +18305,12 @@
         <v>1000</v>
       </c>
       <c r="C113">
-        <f>C13-C63</f>
-        <v>0.19925000000000015</v>
+        <f>100-C13/C63*100</f>
+        <v>-3.0080057488009544</v>
       </c>
       <c r="D113">
-        <f>D13-D63</f>
-        <v>-9.8850000000000549E-2</v>
+        <f>100 - D13/D63*100</f>
+        <v>1.5289100889505676</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -15512,12 +18318,12 @@
         <v>2000</v>
       </c>
       <c r="C114">
-        <f>C14-C64</f>
-        <v>0.25300000000000011</v>
+        <f t="shared" ref="C114:C144" si="2">100-C14/C64*100</f>
+        <v>-0.38734410548006792</v>
       </c>
       <c r="D114">
-        <f>D14-D64</f>
-        <v>0.15680000000000405</v>
+        <f t="shared" ref="D114:D144" si="3">100 - D14/D64*100</f>
+        <v>-0.3308631138270357</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -15525,12 +18331,12 @@
         <v>3000</v>
       </c>
       <c r="C115">
-        <f>C15-C65</f>
-        <v>5.7729999999999961</v>
+        <f t="shared" si="2"/>
+        <v>-2.2690469452567328</v>
       </c>
       <c r="D115">
-        <f>D15-D65</f>
-        <v>-5.7000000000016371E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6424285413033886E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -15538,12 +18344,12 @@
         <v>4000</v>
       </c>
       <c r="C116">
-        <f>C16-C66</f>
-        <v>-2.6759999999999309</v>
+        <f t="shared" si="2"/>
+        <v>0.42829774055334724</v>
       </c>
       <c r="D116">
-        <f>D16-D66</f>
-        <v>-6.4999999999997726E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7621909727012053E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -15554,12 +18360,12 @@
         <v>1000</v>
       </c>
       <c r="C117">
-        <f>C17-C67</f>
-        <v>-4.502000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1536431240102303</v>
       </c>
       <c r="D117">
-        <f>D17-D67</f>
-        <v>-2.2380000000000067E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.56612221460534329</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -15567,12 +18373,12 @@
         <v>2000</v>
       </c>
       <c r="C118">
-        <f>C18-C68</f>
-        <v>9.3099999999999739E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.31743650417507752</v>
       </c>
       <c r="D118">
-        <f>D18-D68</f>
-        <v>0.26099999999999923</v>
+        <f t="shared" si="3"/>
+        <v>-0.94406505006077168</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -15580,12 +18386,12 @@
         <v>3000</v>
       </c>
       <c r="C119">
-        <f>C19-C69</f>
-        <v>-1.1770000000000067</v>
+        <f t="shared" si="2"/>
+        <v>0.94047894909267882</v>
       </c>
       <c r="D119">
-        <f>D19-D69</f>
-        <v>-6.1610000000000014</v>
+        <f t="shared" si="3"/>
+        <v>6.3731625823670015</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -15593,12 +18399,12 @@
         <v>4000</v>
       </c>
       <c r="C120">
-        <f>C20-C70</f>
-        <v>3.0299999999999727</v>
+        <f t="shared" si="2"/>
+        <v>-0.9198933773748621</v>
       </c>
       <c r="D120">
-        <f>D20-D70</f>
-        <v>-1.3100000000000023</v>
+        <f t="shared" si="3"/>
+        <v>0.62153942505230475</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -15609,12 +18415,12 @@
         <v>1000</v>
       </c>
       <c r="C121">
-        <f>C21-C71</f>
-        <v>7.2500000000000231E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.2003034901365766</v>
       </c>
       <c r="D121">
-        <f>D21-D71</f>
-        <v>-0.13633999999999968</v>
+        <f t="shared" si="3"/>
+        <v>4.0758245667530559</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -15622,12 +18428,12 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <f>C22-C72</f>
-        <v>-0.23419999999999774</v>
+        <f t="shared" si="2"/>
+        <v>0.95128618604101689</v>
       </c>
       <c r="D122">
-        <f>D22-D72</f>
-        <v>-0.92370000000000019</v>
+        <f t="shared" si="3"/>
+        <v>3.8938702211880099</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -15635,12 +18441,12 @@
         <v>3000</v>
       </c>
       <c r="C123">
-        <f>C23-C73</f>
-        <v>0.99629999999999086</v>
+        <f t="shared" si="2"/>
+        <v>-1.1405747177755785</v>
       </c>
       <c r="D123">
-        <f>D23-D73</f>
-        <v>1.1128000000000071</v>
+        <f t="shared" si="3"/>
+        <v>-1.5139785882503531</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -15648,12 +18454,12 @@
         <v>4000</v>
       </c>
       <c r="C124">
-        <f>C24-C74</f>
-        <v>-2.7019999999999982</v>
+        <f t="shared" si="2"/>
+        <v>1.1104991903466299</v>
       </c>
       <c r="D124">
-        <f>D24-D74</f>
-        <v>3.5999999999999943</v>
+        <f t="shared" si="3"/>
+        <v>-2.0848173178825249</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -15664,12 +18470,12 @@
         <v>1000</v>
       </c>
       <c r="C125">
-        <f>C25-C75</f>
-        <v>3.4909999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.0747126967561655</v>
       </c>
       <c r="D125">
-        <f>D25-D75</f>
-        <v>0.23733000000000004</v>
+        <f t="shared" si="3"/>
+        <v>-7.2771594149572394</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -15677,12 +18483,12 @@
         <v>2000</v>
       </c>
       <c r="C126">
-        <f>C26-C76</f>
-        <v>0.90690000000000026</v>
+        <f t="shared" si="2"/>
+        <v>-3.7356961024196096</v>
       </c>
       <c r="D126">
-        <f>D26-D76</f>
-        <v>-0.18649999999999878</v>
+        <f t="shared" si="3"/>
+        <v>0.78506152104090177</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -15690,12 +18496,12 @@
         <v>3000</v>
       </c>
       <c r="C127">
-        <f>C27-C77</f>
-        <v>3.698599999999999</v>
+        <f t="shared" si="2"/>
+        <v>-4.023668124075968</v>
       </c>
       <c r="D127">
-        <f>D27-D77</f>
-        <v>0.80530000000000257</v>
+        <f t="shared" si="3"/>
+        <v>-1.0605793215347887</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -15703,12 +18509,12 @@
         <v>4000</v>
       </c>
       <c r="C128">
-        <f>C28-C78</f>
-        <v>0.63599999999999568</v>
+        <f t="shared" si="2"/>
+        <v>-0.26934886183165929</v>
       </c>
       <c r="D128">
-        <f>D28-D78</f>
-        <v>3.7769999999999868</v>
+        <f t="shared" si="3"/>
+        <v>-2.1466691674197307</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -15719,12 +18525,12 @@
         <v>1000</v>
       </c>
       <c r="C129">
-        <f>C29-C79</f>
-        <v>-6.4289999999999736E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.907896298758331</v>
       </c>
       <c r="D129">
-        <f>D29-D79</f>
-        <v>-6.0780000000000278E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7157616903555493</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -15732,12 +18538,12 @@
         <v>2000</v>
       </c>
       <c r="C130">
-        <f>C30-C80</f>
-        <v>-0.48140000000000072</v>
+        <f t="shared" si="2"/>
+        <v>2.0364220901457344</v>
       </c>
       <c r="D130">
-        <f>D30-D80</f>
-        <v>0.3683000000000014</v>
+        <f t="shared" si="3"/>
+        <v>-1.501732925586154</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -15745,12 +18551,12 @@
         <v>3000</v>
       </c>
       <c r="C131">
-        <f>C31-C81</f>
-        <v>1.4187000000000012</v>
+        <f t="shared" si="2"/>
+        <v>-1.5768554476926795</v>
       </c>
       <c r="D131">
-        <f>D31-D81</f>
-        <v>-0.57840000000000202</v>
+        <f t="shared" si="3"/>
+        <v>0.73302317564801456</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -15758,12 +18564,12 @@
         <v>4000</v>
       </c>
       <c r="C132">
-        <f>C32-C82</f>
-        <v>-0.97800000000000864</v>
+        <f t="shared" si="2"/>
+        <v>0.40113367431062841</v>
       </c>
       <c r="D132">
-        <f>D32-D82</f>
-        <v>-6.0000000000002274E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.2982980781923743E-3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -15774,12 +18580,12 @@
         <v>1000</v>
       </c>
       <c r="C133">
-        <f>C33-C83</f>
-        <v>-3.3549999999999969E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0688866374833594</v>
       </c>
       <c r="D133">
-        <f>D33-D83</f>
-        <v>-6.0490000000000155E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.8230807019870383</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -15787,12 +18593,12 @@
         <v>2000</v>
       </c>
       <c r="C134">
-        <f>C34-C84</f>
-        <v>-0.34590000000000032</v>
+        <f t="shared" si="2"/>
+        <v>1.6497352983259361</v>
       </c>
       <c r="D134">
-        <f>D34-D84</f>
-        <v>-0.10560000000000258</v>
+        <f t="shared" si="3"/>
+        <v>0.47155066936976198</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -15800,12 +18606,12 @@
         <v>3000</v>
       </c>
       <c r="C135">
-        <f>C35-C85</f>
-        <v>3.7002999999999986</v>
+        <f t="shared" si="2"/>
+        <v>-4.8816300684032257</v>
       </c>
       <c r="D135">
-        <f>D35-D85</f>
-        <v>5.880000000000507E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.3381074197802718E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -15813,12 +18619,12 @@
         <v>4000</v>
       </c>
       <c r="C136">
-        <f>C36-C86</f>
-        <v>9.200000000001296E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.5919640628895309E-2</v>
       </c>
       <c r="D136">
-        <f>D36-D86</f>
-        <v>0.84299999999998931</v>
+        <f t="shared" si="3"/>
+        <v>-0.52477916321689122</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -15829,12 +18635,12 @@
         <v>1000</v>
       </c>
       <c r="C137">
-        <f>C37-C87</f>
-        <v>-5.8179999999999676E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8096479304756627</v>
       </c>
       <c r="D137">
-        <f>D37-D87</f>
-        <v>-7.0740000000000247E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1916806602926044</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -15842,12 +18648,12 @@
         <v>2000</v>
       </c>
       <c r="C138">
-        <f>C38-C88</f>
-        <v>-0.12359999999999971</v>
+        <f t="shared" si="2"/>
+        <v>0.61971350784921242</v>
       </c>
       <c r="D138">
-        <f>D38-D88</f>
-        <v>8.6999999999999744E-2</v>
+        <f t="shared" si="3"/>
+        <v>-0.41599525669775517</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -15855,12 +18661,12 @@
         <v>3000</v>
       </c>
       <c r="C139">
-        <f>C39-C89</f>
-        <v>1.4672999999999945</v>
+        <f t="shared" si="2"/>
+        <v>-2.1669046771647231</v>
       </c>
       <c r="D139">
-        <f>D39-D89</f>
-        <v>-0.15920000000001266</v>
+        <f t="shared" si="3"/>
+        <v>0.24405761108685908</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -15868,12 +18674,12 @@
         <v>4000</v>
       </c>
       <c r="C140">
-        <f>C40-C90</f>
-        <v>0.25399999999999068</v>
+        <f t="shared" si="2"/>
+        <v>-0.1461550855064786</v>
       </c>
       <c r="D140">
-        <f>D40-D90</f>
-        <v>7.5860000000000127</v>
+        <f t="shared" si="3"/>
+        <v>-5.1219726278973923</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -15884,12 +18690,12 @@
         <v>1000</v>
       </c>
       <c r="C141">
-        <f>C41-C91</f>
-        <v>-3.1530000000000058E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0013783641295078</v>
       </c>
       <c r="D141">
-        <f>D41-D91</f>
-        <v>-0.16686999999999985</v>
+        <f t="shared" si="3"/>
+        <v>5.1366268242305182</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -15897,12 +18703,12 @@
         <v>2000</v>
       </c>
       <c r="C142">
-        <f>C42-C92</f>
-        <v>-0.3647999999999989</v>
+        <f t="shared" si="2"/>
+        <v>1.8408251417960031</v>
       </c>
       <c r="D142">
-        <f>D42-D92</f>
-        <v>-0.16259999999999764</v>
+        <f t="shared" si="3"/>
+        <v>0.8037806361038804</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -15910,12 +18716,12 @@
         <v>3000</v>
       </c>
       <c r="C143">
-        <f>C43-C93</f>
-        <v>0.93739999999999668</v>
+        <f t="shared" si="2"/>
+        <v>-1.4498514420407247</v>
       </c>
       <c r="D143">
-        <f>D43-D93</f>
-        <v>-0.28479999999999706</v>
+        <f t="shared" si="3"/>
+        <v>0.45520367487461044</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -15923,12 +18729,12 @@
         <v>4000</v>
       </c>
       <c r="C144">
-        <f>C44-C94</f>
-        <v>-5.4869999999999948</v>
+        <f t="shared" si="2"/>
+        <v>3.4460236015248569</v>
       </c>
       <c r="D144">
-        <f>D44-D94</f>
-        <v>0.7529999999999859</v>
+        <f t="shared" si="3"/>
+        <v>-0.53728148412415067</v>
       </c>
     </row>
   </sheetData>

--- a/matrixmul/values - whole program.xlsx
+++ b/matrixmul/values - whole program.xlsx
@@ -17122,8 +17122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17747,6 +17747,16 @@
         <v>8.3498113698451988</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <f>100 - C44/B7*100</f>
+        <v>67.202833006229199</v>
+      </c>
+      <c r="D49">
+        <f>100 - D44/C7*100</f>
+        <v>42.437117259918054</v>
+      </c>
+    </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>10</v>
@@ -18276,6 +18286,16 @@
       <c r="E94">
         <f t="shared" si="1"/>
         <v>11.981008246088919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <f>100- C94/B7*100</f>
+        <v>66.03229797764314</v>
+      </c>
+      <c r="D98">
+        <f>100- D94/C7*100</f>
+        <v>42.744739175017664</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">

--- a/matrixmul/values - whole program.xlsx
+++ b/matrixmul/values - whole program.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
   <si>
     <t>Original</t>
   </si>
   <si>
-    <t>Mul</t>
-  </si>
-  <si>
     <t>Matrix Size</t>
-  </si>
-  <si>
-    <t>OpenMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mul </t>
   </si>
   <si>
     <t>nº Threads</t>
@@ -37,16 +28,25 @@
     <t>Execution Time (s)</t>
   </si>
   <si>
-    <t>MuLine</t>
+    <t>Kremlin</t>
   </si>
   <si>
-    <t>% reduced time</t>
+    <t>100 - OpenMP / Kremlin *100</t>
   </si>
   <si>
-    <t>OpenMP - Kremlin</t>
+    <t>original</t>
   </si>
   <si>
-    <t>Kremlin</t>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>%Time Reduced</t>
+  </si>
+  <si>
+    <t>Mult</t>
+  </si>
+  <si>
+    <t>MultLine</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Original version Mul vs Muline</a:t>
+              <a:t>Original Mult vs MultLine</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -186,7 +189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mul</c:v>
+                  <c:v>Mult</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -268,7 +271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MuLine</c:v>
+                  <c:v>MultLine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -700,7 +703,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP /</a:t>
+              <a:t>Manual /</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -712,7 +715,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Muline</a:t>
+              <a:t> MultLine</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -824,28 +827,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.5289100889505676</c:v>
+                  <c:v>0.98471089911049436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56612221460534329</c:v>
+                  <c:v>0.99433877785394653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0758245667530559</c:v>
+                  <c:v>0.9592417543324695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.2771594149572394</c:v>
+                  <c:v>1.0727715941495723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7157616903555493</c:v>
+                  <c:v>0.98284238309644445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8230807019870383</c:v>
+                  <c:v>0.98176919298012966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1916806602926044</c:v>
+                  <c:v>0.97808319339707395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1366268242305182</c:v>
+                  <c:v>0.94863373175769483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,28 +925,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.3308631138270357</c:v>
+                  <c:v>1.0033086311382704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94406505006077168</c:v>
+                  <c:v>1.0094406505006077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8938702211880099</c:v>
+                  <c:v>0.96106129778811988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78506152104090177</c:v>
+                  <c:v>0.99214938478959092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.501732925586154</c:v>
+                  <c:v>1.0150173292558615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47155066936976198</c:v>
+                  <c:v>0.99528449330630242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.41599525669775517</c:v>
+                  <c:v>1.0041599525669775</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8037806361038804</c:v>
+                  <c:v>0.99196219363896121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,28 +1023,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.6424285413033886E-2</c:v>
+                  <c:v>0.99963575714586961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3731625823670015</c:v>
+                  <c:v>0.93626837417633002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5139785882503531</c:v>
+                  <c:v>1.0151397858825035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0605793215347887</c:v>
+                  <c:v>1.0106057932153478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73302317564801456</c:v>
+                  <c:v>0.99266976824351982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.3381074197802718E-2</c:v>
+                  <c:v>1.0008338107419781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24405761108685908</c:v>
+                  <c:v>0.99755942388913144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45520367487461044</c:v>
+                  <c:v>0.99544796325125395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,28 +1121,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7621909727012053E-2</c:v>
+                  <c:v>0.99982378090272983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62153942505230475</c:v>
+                  <c:v>0.99378460574947691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0848173178825249</c:v>
+                  <c:v>1.0208481731788253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1466691674197307</c:v>
+                  <c:v>1.0214666916741972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2982980781923743E-3</c:v>
+                  <c:v>0.99996701701921809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.52477916321689122</c:v>
+                  <c:v>1.0052477916321689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.1219726278973923</c:v>
+                  <c:v>1.051219726278974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.53728148412415067</c:v>
+                  <c:v>1.0053728148412415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,7 +1329,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> time (%)</a:t>
+                  <a:t> time </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1515,11 +1518,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP / Kremlin</a:t>
+              <a:t>Manual / Kremlin</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Mul</a:t>
+              <a:t> Mult</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1631,28 +1634,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-3.0080057488009544</c:v>
+                  <c:v>1.0300800574880096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1536431240102303</c:v>
+                  <c:v>0.98846356875989771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.2003034901365766</c:v>
+                  <c:v>1.0220030349013658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0747126967561655</c:v>
+                  <c:v>1.0107471269675616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.907896298758331</c:v>
+                  <c:v>0.98092103701241673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0688866374833594</c:v>
+                  <c:v>0.98931113362516643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8096479304756627</c:v>
+                  <c:v>0.98190352069524334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0013783641295078</c:v>
+                  <c:v>0.98998621635870498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,28 +1732,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.38734410548006792</c:v>
+                  <c:v>1.0038734410548007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.31743650417507752</c:v>
+                  <c:v>1.0031743650417508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95128618604101689</c:v>
+                  <c:v>0.99048713813958977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.7356961024196096</c:v>
+                  <c:v>1.0373569610241962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0364220901457344</c:v>
+                  <c:v>0.97963577909854271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6497352983259361</c:v>
+                  <c:v>0.98350264701674062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61971350784921242</c:v>
+                  <c:v>0.99380286492150793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8408251417960031</c:v>
+                  <c:v>0.9815917485820399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,28 +1830,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-2.2690469452567328</c:v>
+                  <c:v>1.0226904694525674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94047894909267882</c:v>
+                  <c:v>0.99059521050907318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1405747177755785</c:v>
+                  <c:v>1.0114057471777558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.023668124075968</c:v>
+                  <c:v>1.0402366812407597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5768554476926795</c:v>
+                  <c:v>1.0157685544769268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.8816300684032257</c:v>
+                  <c:v>1.0488163006840323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.1669046771647231</c:v>
+                  <c:v>1.0216690467716472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.4498514420407247</c:v>
+                  <c:v>1.0144985144204073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,28 +1928,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.42829774055334724</c:v>
+                  <c:v>0.99571702259446648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.9198933773748621</c:v>
+                  <c:v>1.0091989337737486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1104991903466299</c:v>
+                  <c:v>0.98889500809653375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26934886183165929</c:v>
+                  <c:v>1.0026934886183165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40113367431062841</c:v>
+                  <c:v>0.99598866325689372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5919640628895309E-2</c:v>
+                  <c:v>1.000459196406289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1461550855064786</c:v>
+                  <c:v>1.0014615508550648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4460236015248569</c:v>
+                  <c:v>0.96553976398475139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,7 +2136,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> time (%)</a:t>
+                  <a:t> time </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -2287,7 +2290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2322,11 +2325,1423 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP</a:t>
+              <a:t>Original Vs Manual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Original Mult</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$151:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$151:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Manual Mult 8 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$151:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$F$151:$F$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.11713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.452400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.592299999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Original MultLine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$166:$B$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.45099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244.78100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Manual MultLine 8 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$C$166:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0817600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.066800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.2806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.90299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="477736432"/>
+        <c:axId val="477734080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="477736432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477734080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="477734080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477736432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Original Vs Kremlin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Original Mult</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$151:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$160:$B$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kremlin Mult 8 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$151:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$E$160:$E$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.14866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.654899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Original MultLine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$166:$B$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.45099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244.78100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Kremlin MultLine 8 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$E$166:$E$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2486299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.229399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.565399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514538784"/>
+        <c:axId val="514540352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514538784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514540352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514540352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514538784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time Reduced Manual</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Mul</a:t>
+              <a:t> Vs Original and Kremlin Vs Original</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2372,7 +3787,713 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Mul 1 Thread</c:v>
+            <c:v>Manual Original Mult</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$160:$A$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$D$160:$D$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.469809428284854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.352200232354321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.792803129074315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.202833006229199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kremlin Original Mult</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$160:$A$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$F$160:$F$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36.837311935807428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.608666408495203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.281668839634946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.03229797764314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Manual Original MultLine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$D$166:$D$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.367870225013078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.986446476741889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.209378141745809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.437117259918054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Kremlin Original MultLine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$A$166:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$F$166:$F$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.001831501831504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.451542864662159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.931391592078171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.744739175017664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475343384"/>
+        <c:axId val="475342992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475343384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475342992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475342992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Reduced (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475343384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Manual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Mult</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mult 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2446,7 +4567,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Mul 2 Threads</c:v>
+            <c:v>Mult 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2520,7 +4641,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Mul 3 Threads</c:v>
+            <c:v>Mult 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2594,7 +4715,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mul 4 Threads</c:v>
+            <c:v>Mult 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2668,7 +4789,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Mul 5 Threads</c:v>
+            <c:v>Mult 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2742,7 +4863,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Mul 6 Threads</c:v>
+            <c:v>Mult 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2816,7 +4937,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Mul 7 Threads</c:v>
+            <c:v>Mult 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2896,7 +5017,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Mul 8 Threads</c:v>
+            <c:v>Mult 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3331,11 +5452,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP</a:t>
+              <a:t>Manual</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Muline</a:t>
+              <a:t> MultLine</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3381,7 +5502,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Muline 1 Thread</c:v>
+            <c:v>MultLine 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3455,7 +5576,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Muline 2 Threads</c:v>
+            <c:v>MultLine 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3529,7 +5650,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Muline 3 Threads</c:v>
+            <c:v>MultLine 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3603,7 +5724,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Muline 4 Threads</c:v>
+            <c:v>MultLine 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3677,7 +5798,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Muline 5 Threads</c:v>
+            <c:v>MultLine 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3751,7 +5872,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Muline 6 Threads</c:v>
+            <c:v>MultLine 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3825,7 +5946,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Muline 7 Threads</c:v>
+            <c:v>MultLine 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3905,7 +6026,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Muline 8 Threads</c:v>
+            <c:v>MultLine 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4340,7 +6461,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Time reduced using Muline vs Mul </a:t>
+              <a:t>Time reduced MultLine vs Mult </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5157,11 +7278,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Reduced</a:t>
+                  <a:t>Time reduced</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> time (%)</a:t>
+                  <a:t>(%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -5350,11 +7471,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP</a:t>
+              <a:t>Kremlin</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Mul</a:t>
+              <a:t> Mult</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5400,7 +7521,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Mul 1 Thread</c:v>
+            <c:v>Mult 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5474,7 +7595,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Mul 2 Threads</c:v>
+            <c:v>Mult 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5548,7 +7669,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Mul 3 Threads</c:v>
+            <c:v>Mult 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5622,7 +7743,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mul 4 Threads</c:v>
+            <c:v>Mult 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5696,7 +7817,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Mul 5 Threads</c:v>
+            <c:v>Mult 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5770,7 +7891,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Mul 6 Threads</c:v>
+            <c:v>Mult 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5844,7 +7965,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Mul 7 Threads</c:v>
+            <c:v>Mult 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5924,7 +8045,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Mul 8 Threads</c:v>
+            <c:v>Mult 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6359,11 +8480,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP</a:t>
+              <a:t>Kremlin</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Muline</a:t>
+              <a:t> MultLine</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -6409,7 +8530,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Muline 1 Thread</c:v>
+            <c:v>MultLine 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6483,7 +8604,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Muline 2 Threads</c:v>
+            <c:v>MultLine 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6557,7 +8678,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Muline 3 Threads</c:v>
+            <c:v>MultLine 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6631,7 +8752,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Muline 4 Threads</c:v>
+            <c:v>MultLine 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6705,7 +8826,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Muline 5 Threads</c:v>
+            <c:v>MultLine 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6779,7 +8900,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Muline 6 Threads</c:v>
+            <c:v>MultLine 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6853,7 +8974,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Muline 7 Threads</c:v>
+            <c:v>MultLine 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6933,7 +9054,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Muline 8 Threads</c:v>
+            <c:v>MultLine 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7368,7 +9489,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Time reduced using Muline vs Mul </a:t>
+              <a:t>Time reduced MultLine vs Mult </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -8185,11 +10306,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Reduced</a:t>
+                  <a:t>Time reduced</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> time (%)</a:t>
+                  <a:t> (%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -8378,11 +10499,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP</a:t>
+              <a:t>Manual</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> / Kremlin Mul</a:t>
+              <a:t> / Kremlin Mult</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -8428,7 +10549,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Mul 1 Thread</c:v>
+            <c:v>Mult 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8482,16 +10603,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-3.0080057488009544</c:v>
+                  <c:v>1.0300800574880096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.38734410548006792</c:v>
+                  <c:v>1.0038734410548007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.2690469452567328</c:v>
+                  <c:v>1.0226904694525674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42829774055334724</c:v>
+                  <c:v>0.99571702259446648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8502,7 +10623,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Mul 2 Threads</c:v>
+            <c:v>Mult 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8556,16 +10677,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1536431240102303</c:v>
+                  <c:v>0.98846356875989771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.31743650417507752</c:v>
+                  <c:v>1.0031743650417508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94047894909267882</c:v>
+                  <c:v>0.99059521050907318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.9198933773748621</c:v>
+                  <c:v>1.0091989337737486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,7 +10697,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Mul 3 Threads</c:v>
+            <c:v>Mult 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8630,16 +10751,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-2.2003034901365766</c:v>
+                  <c:v>1.0220030349013658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95128618604101689</c:v>
+                  <c:v>0.99048713813958977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1405747177755785</c:v>
+                  <c:v>1.0114057471777558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1104991903466299</c:v>
+                  <c:v>0.98889500809653375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8650,7 +10771,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Mul 4 Threads</c:v>
+            <c:v>Mult 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8704,16 +10825,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-1.0747126967561655</c:v>
+                  <c:v>1.0107471269675616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.7356961024196096</c:v>
+                  <c:v>1.0373569610241962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.023668124075968</c:v>
+                  <c:v>1.0402366812407597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26934886183165929</c:v>
+                  <c:v>1.0026934886183165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8724,7 +10845,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Mul 5 Threads</c:v>
+            <c:v>Mult 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8778,16 +10899,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.907896298758331</c:v>
+                  <c:v>0.98092103701241673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0364220901457344</c:v>
+                  <c:v>0.97963577909854271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5768554476926795</c:v>
+                  <c:v>1.0157685544769268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40113367431062841</c:v>
+                  <c:v>0.99598866325689372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8798,7 +10919,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Mul 6 Threads</c:v>
+            <c:v>Mult 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8852,16 +10973,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0688866374833594</c:v>
+                  <c:v>0.98931113362516643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6497352983259361</c:v>
+                  <c:v>0.98350264701674062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.8816300684032257</c:v>
+                  <c:v>1.0488163006840323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5919640628895309E-2</c:v>
+                  <c:v>1.000459196406289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8872,7 +10993,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Mul 7 Threads</c:v>
+            <c:v>Mult 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -8932,16 +11053,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8096479304756627</c:v>
+                  <c:v>0.98190352069524334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61971350784921242</c:v>
+                  <c:v>0.99380286492150793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.1669046771647231</c:v>
+                  <c:v>1.0216690467716472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1461550855064786</c:v>
+                  <c:v>1.0014615508550648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8952,7 +11073,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Mul 8 Threads</c:v>
+            <c:v>Mult 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9012,16 +11133,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0013783641295078</c:v>
+                  <c:v>0.98998621635870498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8408251417960031</c:v>
+                  <c:v>0.9815917485820399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.4498514420407247</c:v>
+                  <c:v>1.0144985144204073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4460236015248569</c:v>
+                  <c:v>0.96553976398475139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9199,7 +11320,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Racio execution time (%)</a:t>
+                  <a:t>Racio execution time </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9387,11 +11508,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>OpenMP / Kremlin</a:t>
+              <a:t>Manual / Kremlin</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Muline</a:t>
+              <a:t> MultLine</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -9437,7 +11558,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Muline 1 Thread</c:v>
+            <c:v>MultLine 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9491,16 +11612,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5289100889505676</c:v>
+                  <c:v>0.98471089911049436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.3308631138270357</c:v>
+                  <c:v>1.0033086311382704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6424285413033886E-2</c:v>
+                  <c:v>0.99963575714586961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7621909727012053E-2</c:v>
+                  <c:v>0.99982378090272983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9511,7 +11632,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Muline 2 Threads</c:v>
+            <c:v>MultLine 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9565,16 +11686,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56612221460534329</c:v>
+                  <c:v>0.99433877785394653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94406505006077168</c:v>
+                  <c:v>1.0094406505006077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3731625823670015</c:v>
+                  <c:v>0.93626837417633002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62153942505230475</c:v>
+                  <c:v>0.99378460574947691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9585,7 +11706,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Muline 3 Threads</c:v>
+            <c:v>MultLine 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9639,16 +11760,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0758245667530559</c:v>
+                  <c:v>0.9592417543324695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8938702211880099</c:v>
+                  <c:v>0.96106129778811988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5139785882503531</c:v>
+                  <c:v>1.0151397858825035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0848173178825249</c:v>
+                  <c:v>1.0208481731788253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9659,7 +11780,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Muline 4 Threads</c:v>
+            <c:v>MultLine 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9713,16 +11834,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-7.2771594149572394</c:v>
+                  <c:v>1.0727715941495723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78506152104090177</c:v>
+                  <c:v>0.99214938478959092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0605793215347887</c:v>
+                  <c:v>1.0106057932153478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1466691674197307</c:v>
+                  <c:v>1.0214666916741972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9733,7 +11854,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Muline 5 Threads</c:v>
+            <c:v>MultLine 5 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9787,16 +11908,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7157616903555493</c:v>
+                  <c:v>0.98284238309644445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.501732925586154</c:v>
+                  <c:v>1.0150173292558615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73302317564801456</c:v>
+                  <c:v>0.99266976824351982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2982980781923743E-3</c:v>
+                  <c:v>0.99996701701921809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9807,7 +11928,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Muline 6 Threads</c:v>
+            <c:v>MultLine 6 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9861,16 +11982,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8230807019870383</c:v>
+                  <c:v>0.98176919298012966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47155066936976198</c:v>
+                  <c:v>0.99528449330630242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.3381074197802718E-2</c:v>
+                  <c:v>1.0008338107419781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.52477916321689122</c:v>
+                  <c:v>1.0052477916321689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9881,7 +12002,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Muline 7 Threads</c:v>
+            <c:v>MultLine 7 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -9941,16 +12062,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1916806602926044</c:v>
+                  <c:v>0.97808319339707395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.41599525669775517</c:v>
+                  <c:v>1.0041599525669775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24405761108685908</c:v>
+                  <c:v>0.99755942388913144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.1219726278973923</c:v>
+                  <c:v>1.051219726278974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9961,7 +12082,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>Muline 8 Threads</c:v>
+            <c:v>MultLine 8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -10021,16 +12142,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1366268242305182</c:v>
+                  <c:v>0.94863373175769483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8037806361038804</c:v>
+                  <c:v>0.99196219363896121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45520367487461044</c:v>
+                  <c:v>0.99544796325125395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.53728148412415067</c:v>
+                  <c:v>1.0053728148412415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10212,7 +12333,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> execution time (%)</a:t>
+                  <a:t> execution time </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -10447,6 +12568,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12354,7 +14595,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12870,7 +15111,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13386,7 +15627,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13902,7 +16143,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14418,7 +16659,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14934,7 +17175,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15450,7 +17691,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15966,7 +18207,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16482,20 +18723,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6872</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471692</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73661</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16516,16 +20305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16547,15 +20336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>52070</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>394970</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16611,15 +20400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:colOff>316379</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>360829</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49679</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16642,16 +20431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>78665</xdr:rowOff>
+      <xdr:rowOff>40565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>360829</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>78665</xdr:rowOff>
+      <xdr:rowOff>40565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16801,15 +20590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>340659</xdr:colOff>
+      <xdr:colOff>407334</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>105895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>138392</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16825,6 +20614,98 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Gráfico 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17120,16 +21001,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -17139,18 +21021,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -17218,26 +21100,26 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -17745,6 +21627,16 @@
       <c r="E44">
         <f t="shared" si="0"/>
         <v>8.3498113698451988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f>SMALL(C13:C44,1)</f>
+        <v>3.1052300000000002</v>
+      </c>
+      <c r="D45">
+        <f>SMALL(D13:D44,1)</f>
+        <v>3.0817600000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -17759,26 +21651,26 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -18286,6 +22178,16 @@
       <c r="E94">
         <f t="shared" si="1"/>
         <v>11.981008246088919</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <f>SMALL(C63:C94,1)</f>
+        <v>3.1387800000000001</v>
+      </c>
+      <c r="D96">
+        <f>SMALL(D63:D94,1)</f>
+        <v>3.2276600000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -18300,21 +22202,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -18325,12 +22227,12 @@
         <v>1000</v>
       </c>
       <c r="C113">
-        <f>100-C13/C63*100</f>
-        <v>-3.0080057488009544</v>
+        <f>C13/C63</f>
+        <v>1.0300800574880096</v>
       </c>
       <c r="D113">
-        <f>100 - D13/D63*100</f>
-        <v>1.5289100889505676</v>
+        <f>D13/D63</f>
+        <v>0.98471089911049436</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -18338,12 +22240,12 @@
         <v>2000</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:C144" si="2">100-C14/C64*100</f>
-        <v>-0.38734410548006792</v>
+        <f t="shared" ref="C114:D144" si="2">C14/C64</f>
+        <v>1.0038734410548007</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:D144" si="3">100 - D14/D64*100</f>
-        <v>-0.3308631138270357</v>
+        <f t="shared" si="2"/>
+        <v>1.0033086311382704</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -18352,11 +22254,11 @@
       </c>
       <c r="C115">
         <f t="shared" si="2"/>
-        <v>-2.2690469452567328</v>
+        <v>1.0226904694525674</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
-        <v>3.6424285413033886E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.99963575714586961</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -18365,11 +22267,11 @@
       </c>
       <c r="C116">
         <f t="shared" si="2"/>
-        <v>0.42829774055334724</v>
+        <v>0.99571702259446648</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
-        <v>1.7621909727012053E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.99982378090272983</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -18381,11 +22283,11 @@
       </c>
       <c r="C117">
         <f t="shared" si="2"/>
-        <v>1.1536431240102303</v>
+        <v>0.98846356875989771</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
-        <v>0.56612221460534329</v>
+        <f t="shared" si="2"/>
+        <v>0.99433877785394653</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -18394,11 +22296,11 @@
       </c>
       <c r="C118">
         <f t="shared" si="2"/>
-        <v>-0.31743650417507752</v>
+        <v>1.0031743650417508</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
-        <v>-0.94406505006077168</v>
+        <f t="shared" si="2"/>
+        <v>1.0094406505006077</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -18407,11 +22309,11 @@
       </c>
       <c r="C119">
         <f t="shared" si="2"/>
-        <v>0.94047894909267882</v>
+        <v>0.99059521050907318</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
-        <v>6.3731625823670015</v>
+        <f t="shared" si="2"/>
+        <v>0.93626837417633002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -18420,11 +22322,11 @@
       </c>
       <c r="C120">
         <f t="shared" si="2"/>
-        <v>-0.9198933773748621</v>
+        <v>1.0091989337737486</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
-        <v>0.62153942505230475</v>
+        <f t="shared" si="2"/>
+        <v>0.99378460574947691</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -18436,11 +22338,11 @@
       </c>
       <c r="C121">
         <f t="shared" si="2"/>
-        <v>-2.2003034901365766</v>
+        <v>1.0220030349013658</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
-        <v>4.0758245667530559</v>
+        <f t="shared" si="2"/>
+        <v>0.9592417543324695</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -18449,11 +22351,11 @@
       </c>
       <c r="C122">
         <f t="shared" si="2"/>
-        <v>0.95128618604101689</v>
+        <v>0.99048713813958977</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
-        <v>3.8938702211880099</v>
+        <f t="shared" si="2"/>
+        <v>0.96106129778811988</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -18462,11 +22364,11 @@
       </c>
       <c r="C123">
         <f t="shared" si="2"/>
-        <v>-1.1405747177755785</v>
+        <v>1.0114057471777558</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
-        <v>-1.5139785882503531</v>
+        <f t="shared" si="2"/>
+        <v>1.0151397858825035</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -18475,11 +22377,11 @@
       </c>
       <c r="C124">
         <f t="shared" si="2"/>
-        <v>1.1104991903466299</v>
+        <v>0.98889500809653375</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
-        <v>-2.0848173178825249</v>
+        <f t="shared" si="2"/>
+        <v>1.0208481731788253</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -18491,11 +22393,11 @@
       </c>
       <c r="C125">
         <f t="shared" si="2"/>
-        <v>-1.0747126967561655</v>
+        <v>1.0107471269675616</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
-        <v>-7.2771594149572394</v>
+        <f t="shared" si="2"/>
+        <v>1.0727715941495723</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -18504,11 +22406,11 @@
       </c>
       <c r="C126">
         <f t="shared" si="2"/>
-        <v>-3.7356961024196096</v>
+        <v>1.0373569610241962</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
-        <v>0.78506152104090177</v>
+        <f t="shared" si="2"/>
+        <v>0.99214938478959092</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -18517,11 +22419,11 @@
       </c>
       <c r="C127">
         <f t="shared" si="2"/>
-        <v>-4.023668124075968</v>
+        <v>1.0402366812407597</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
-        <v>-1.0605793215347887</v>
+        <f t="shared" si="2"/>
+        <v>1.0106057932153478</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -18530,11 +22432,11 @@
       </c>
       <c r="C128">
         <f t="shared" si="2"/>
-        <v>-0.26934886183165929</v>
+        <v>1.0026934886183165</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
-        <v>-2.1466691674197307</v>
+        <f t="shared" si="2"/>
+        <v>1.0214666916741972</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -18546,11 +22448,11 @@
       </c>
       <c r="C129">
         <f t="shared" si="2"/>
-        <v>1.907896298758331</v>
+        <v>0.98092103701241673</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
-        <v>1.7157616903555493</v>
+        <f t="shared" si="2"/>
+        <v>0.98284238309644445</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -18559,11 +22461,11 @@
       </c>
       <c r="C130">
         <f t="shared" si="2"/>
-        <v>2.0364220901457344</v>
+        <v>0.97963577909854271</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
-        <v>-1.501732925586154</v>
+        <f t="shared" si="2"/>
+        <v>1.0150173292558615</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -18572,11 +22474,11 @@
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
-        <v>-1.5768554476926795</v>
+        <v>1.0157685544769268</v>
       </c>
       <c r="D131">
-        <f t="shared" si="3"/>
-        <v>0.73302317564801456</v>
+        <f t="shared" si="2"/>
+        <v>0.99266976824351982</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -18585,11 +22487,11 @@
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>0.40113367431062841</v>
+        <v>0.99598866325689372</v>
       </c>
       <c r="D132">
-        <f t="shared" si="3"/>
-        <v>3.2982980781923743E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.99996701701921809</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -18601,11 +22503,11 @@
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>1.0688866374833594</v>
+        <v>0.98931113362516643</v>
       </c>
       <c r="D133">
-        <f t="shared" si="3"/>
-        <v>1.8230807019870383</v>
+        <f t="shared" si="2"/>
+        <v>0.98176919298012966</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -18614,11 +22516,11 @@
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>1.6497352983259361</v>
+        <v>0.98350264701674062</v>
       </c>
       <c r="D134">
-        <f t="shared" si="3"/>
-        <v>0.47155066936976198</v>
+        <f t="shared" si="2"/>
+        <v>0.99528449330630242</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -18627,11 +22529,11 @@
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>-4.8816300684032257</v>
+        <v>1.0488163006840323</v>
       </c>
       <c r="D135">
-        <f t="shared" si="3"/>
-        <v>-8.3381074197802718E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0008338107419781</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -18640,11 +22542,11 @@
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>-4.5919640628895309E-2</v>
+        <v>1.000459196406289</v>
       </c>
       <c r="D136">
-        <f t="shared" si="3"/>
-        <v>-0.52477916321689122</v>
+        <f t="shared" si="2"/>
+        <v>1.0052477916321689</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -18656,11 +22558,11 @@
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>1.8096479304756627</v>
+        <v>0.98190352069524334</v>
       </c>
       <c r="D137">
-        <f t="shared" si="3"/>
-        <v>2.1916806602926044</v>
+        <f t="shared" si="2"/>
+        <v>0.97808319339707395</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -18669,11 +22571,11 @@
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>0.61971350784921242</v>
+        <v>0.99380286492150793</v>
       </c>
       <c r="D138">
-        <f t="shared" si="3"/>
-        <v>-0.41599525669775517</v>
+        <f t="shared" si="2"/>
+        <v>1.0041599525669775</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -18682,11 +22584,11 @@
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>-2.1669046771647231</v>
+        <v>1.0216690467716472</v>
       </c>
       <c r="D139">
-        <f t="shared" si="3"/>
-        <v>0.24405761108685908</v>
+        <f t="shared" si="2"/>
+        <v>0.99755942388913144</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -18695,11 +22597,11 @@
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>-0.1461550855064786</v>
+        <v>1.0014615508550648</v>
       </c>
       <c r="D140">
-        <f t="shared" si="3"/>
-        <v>-5.1219726278973923</v>
+        <f t="shared" si="2"/>
+        <v>1.051219726278974</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -18711,11 +22613,11 @@
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>1.0013783641295078</v>
+        <v>0.98998621635870498</v>
       </c>
       <c r="D141">
-        <f t="shared" si="3"/>
-        <v>5.1366268242305182</v>
+        <f t="shared" si="2"/>
+        <v>0.94863373175769483</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -18724,11 +22626,11 @@
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>1.8408251417960031</v>
+        <v>0.9815917485820399</v>
       </c>
       <c r="D142">
-        <f t="shared" si="3"/>
-        <v>0.8037806361038804</v>
+        <f t="shared" si="2"/>
+        <v>0.99196219363896121</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -18737,11 +22639,11 @@
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>-1.4498514420407247</v>
+        <v>1.0144985144204073</v>
       </c>
       <c r="D143">
-        <f t="shared" si="3"/>
-        <v>0.45520367487461044</v>
+        <f t="shared" si="2"/>
+        <v>0.99544796325125395</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -18750,14 +22652,420 @@
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>3.4460236015248569</v>
+        <v>0.96553976398475139</v>
       </c>
       <c r="D144">
+        <f t="shared" si="2"/>
+        <v>1.0053728148412415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>9</v>
+      </c>
+      <c r="J150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1000</v>
+      </c>
+      <c r="B151">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="C151">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="D151">
+        <f>100 - C151*100/B151</f>
+        <v>23.329989969909732</v>
+      </c>
+      <c r="E151">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>3.11713</v>
+      </c>
+      <c r="G151">
+        <v>3.0817600000000001</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+      <c r="I151">
+        <v>3.14866</v>
+      </c>
+      <c r="J151">
+        <v>3.2486299999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2000</v>
+      </c>
+      <c r="B152">
+        <v>49.063000000000002</v>
+      </c>
+      <c r="C152">
+        <v>30.398</v>
+      </c>
+      <c r="D152">
+        <f>100 - C152*100/B152</f>
+        <v>38.042924403318182</v>
+      </c>
+      <c r="F152">
+        <v>19.452400000000001</v>
+      </c>
+      <c r="G152">
+        <v>20.066800000000001</v>
+      </c>
+      <c r="I152">
+        <v>19.8172</v>
+      </c>
+      <c r="J152">
+        <v>20.229399999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3000</v>
+      </c>
+      <c r="B153">
+        <v>191.75</v>
+      </c>
+      <c r="C153">
+        <v>102.45099999999999</v>
+      </c>
+      <c r="D153">
+        <f>100 - C153*100/B153</f>
+        <v>46.570534550195575</v>
+      </c>
+      <c r="F153">
+        <v>65.592299999999994</v>
+      </c>
+      <c r="G153">
+        <v>62.2806</v>
+      </c>
+      <c r="I153">
+        <v>64.654899999999998</v>
+      </c>
+      <c r="J153">
+        <v>62.565399999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>4000</v>
+      </c>
+      <c r="B154">
+        <v>468.76</v>
+      </c>
+      <c r="C154">
+        <v>244.78100000000001</v>
+      </c>
+      <c r="D154">
+        <f>100 - C154*100/B154</f>
+        <v>47.781167335096846</v>
+      </c>
+      <c r="F154">
+        <v>153.74</v>
+      </c>
+      <c r="G154">
+        <v>140.90299999999999</v>
+      </c>
+      <c r="I154">
+        <v>159.227</v>
+      </c>
+      <c r="J154">
+        <v>140.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1000</v>
+      </c>
+      <c r="B160">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="C160">
+        <v>3.11713</v>
+      </c>
+      <c r="D160">
+        <f>100 - C160*100/B160</f>
+        <v>37.469809428284854</v>
+      </c>
+      <c r="E160">
+        <v>3.14866</v>
+      </c>
+      <c r="F160">
+        <f>100 - E160/B160*100</f>
+        <v>36.837311935807428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2000</v>
+      </c>
+      <c r="B161">
+        <v>49.063000000000002</v>
+      </c>
+      <c r="C161">
+        <v>19.452400000000001</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ref="D161:D163" si="3">100 - C161*100/B161</f>
+        <v>60.352200232354321</v>
+      </c>
+      <c r="E161">
+        <v>19.8172</v>
+      </c>
+      <c r="F161">
+        <f t="shared" ref="F161:F163" si="4">100 - E161/B161*100</f>
+        <v>59.608666408495203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>3000</v>
+      </c>
+      <c r="B162">
+        <v>191.75</v>
+      </c>
+      <c r="C162">
+        <v>65.592299999999994</v>
+      </c>
+      <c r="D162">
         <f t="shared" si="3"/>
-        <v>-0.53728148412415067</v>
+        <v>65.792803129074315</v>
+      </c>
+      <c r="E162">
+        <v>64.654899999999998</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>66.281668839634946</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>4000</v>
+      </c>
+      <c r="B163">
+        <v>468.76</v>
+      </c>
+      <c r="C163">
+        <v>153.74</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="3"/>
+        <v>67.202833006229199</v>
+      </c>
+      <c r="E163">
+        <v>159.227</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>66.03229797764314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1000</v>
+      </c>
+      <c r="B166">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="C166">
+        <v>3.0817600000000001</v>
+      </c>
+      <c r="D166">
+        <f>100-C166/B166*100</f>
+        <v>19.367870225013078</v>
+      </c>
+      <c r="E166">
+        <v>3.2486299999999999</v>
+      </c>
+      <c r="F166">
+        <f>100-E166/B166*100</f>
+        <v>15.001831501831504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2000</v>
+      </c>
+      <c r="B167">
+        <v>30.398</v>
+      </c>
+      <c r="C167">
+        <v>20.066800000000001</v>
+      </c>
+      <c r="D167">
+        <f t="shared" ref="D167:D169" si="5">100-C167/B167*100</f>
+        <v>33.986446476741889</v>
+      </c>
+      <c r="E167">
+        <v>20.229399999999998</v>
+      </c>
+      <c r="F167">
+        <f t="shared" ref="F167:F169" si="6">100-E167/B167*100</f>
+        <v>33.451542864662159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3000</v>
+      </c>
+      <c r="B168">
+        <v>102.45099999999999</v>
+      </c>
+      <c r="C168">
+        <v>62.2806</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="5"/>
+        <v>39.209378141745809</v>
+      </c>
+      <c r="E168">
+        <v>62.565399999999997</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="6"/>
+        <v>38.931391592078171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4000</v>
+      </c>
+      <c r="B169">
+        <v>244.78100000000001</v>
+      </c>
+      <c r="C169">
+        <v>140.90299999999999</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="5"/>
+        <v>42.437117259918054</v>
+      </c>
+      <c r="E169">
+        <v>140.15</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="6"/>
+        <v>42.744739175017664</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E148:G149"/>
+    <mergeCell ref="H148:J149"/>
+    <mergeCell ref="B148:D149"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/matrixmul/values - whole program.xlsx
+++ b/matrixmul/values - whole program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Original</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>MultLine</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max - min</t>
   </si>
 </sst>
 </file>
@@ -4328,6 +4337,630 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="475343384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Manual / Kremlin </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 8 Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mult</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$141:$B$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$C$141:$C$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98998621635870498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9815917485820399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0144985144204073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96553976398475139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MultLine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$141:$B$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution time'!$D$141:$D$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94863373175769483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99196219363896121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99544796325125395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0053728148412415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Reference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution time'!$B$141:$B$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="479891904"/>
+        <c:axId val="479893472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="479891904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479893472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479893472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Ratio execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479891904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12727,6 +13360,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15628,6 +16301,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20711,6 +21900,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Gráfico 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21003,8 +22222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" topLeftCell="D113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF143" sqref="AF143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22657,6 +23876,45 @@
       <c r="D144">
         <f t="shared" si="2"/>
         <v>1.0053728148412415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145">
+        <f>LARGE(C113:C144,1)</f>
+        <v>1.0488163006840323</v>
+      </c>
+      <c r="D145">
+        <f>LARGE(D113:D144,1)</f>
+        <v>1.0727715941495723</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146">
+        <f>SMALL($C$113:$C$144,1)</f>
+        <v>0.96553976398475139</v>
+      </c>
+      <c r="D146">
+        <f>SMALL(D113:D144,1)</f>
+        <v>0.93626837417633002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <f>C145-C146</f>
+        <v>8.3276536699280923E-2</v>
+      </c>
+      <c r="D147">
+        <f>D145-D146</f>
+        <v>0.13650321997324233</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
